--- a/mysql_lib.xlsx
+++ b/mysql_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Start and stop mysql on linux</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db charset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">install </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ sudo apt-get install mysql-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ Alter database character set &amp; collate
+$ CREATE DATABASE handson CHARACTER SET utf8 COLLATE utf8_general_ci;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -618,15 +639,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -645,65 +666,77 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -769,6 +802,11 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
